--- a/teaching/traditional_assets/database/data/france/france_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/france/france_insurance_prop_cas.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>8.000000000000001e-05</v>
+        <v>-0.00264</v>
       </c>
       <c r="E2">
-        <v>0.0135</v>
+        <v>-0.0745</v>
       </c>
       <c r="F2">
-        <v>0.08699999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="G2">
-        <v>0.1440188714383264</v>
+        <v>0.1460353679406731</v>
       </c>
       <c r="H2">
-        <v>0.1440188714383264</v>
+        <v>0.1460353679406731</v>
       </c>
       <c r="I2">
-        <v>0.136316786326496</v>
+        <v>0.09966936956483066</v>
       </c>
       <c r="J2">
-        <v>0.09773059622943681</v>
+        <v>0.06366107437274614</v>
       </c>
       <c r="K2">
-        <v>154.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="L2">
-        <v>0.09572288782668073</v>
+        <v>0.05482030804335425</v>
       </c>
       <c r="M2">
-        <v>152.9</v>
+        <v>4.72</v>
       </c>
       <c r="N2">
-        <v>0.08225737034646007</v>
+        <v>0.003134338269473404</v>
       </c>
       <c r="O2">
-        <v>0.9915693904020751</v>
+        <v>0.04911550468262227</v>
       </c>
       <c r="P2">
-        <v>130.2</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.07004519044544867</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.8443579766536965</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>22.69999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="T2">
-        <v>0.1484630477436232</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>359.9</v>
+        <v>555</v>
       </c>
       <c r="V2">
-        <v>0.1936195394878416</v>
+        <v>0.3685503685503685</v>
       </c>
       <c r="W2">
-        <v>0.07354764857388152</v>
+        <v>0.04666181111920369</v>
       </c>
       <c r="X2">
-        <v>0.08251608711848375</v>
+        <v>0.09353095774912788</v>
       </c>
       <c r="Y2">
-        <v>-0.008968438544602234</v>
+        <v>-0.0468691466299242</v>
       </c>
       <c r="Z2">
-        <v>0.3280096202159381</v>
+        <v>0.3728162726189691</v>
       </c>
       <c r="AA2">
-        <v>0.03205657575269476</v>
+        <v>0.02373388445856619</v>
       </c>
       <c r="AB2">
-        <v>0.04676121290551122</v>
+        <v>0.04529620934707808</v>
       </c>
       <c r="AC2">
-        <v>-0.01470463715281646</v>
+        <v>-0.02156232488851189</v>
       </c>
       <c r="AD2">
-        <v>3169.8</v>
+        <v>3079.7</v>
       </c>
       <c r="AE2">
-        <v>104.0364445332381</v>
+        <v>2.947975764259178</v>
       </c>
       <c r="AF2">
-        <v>3273.836444533238</v>
+        <v>3082.647975764259</v>
       </c>
       <c r="AG2">
-        <v>2913.936444533238</v>
+        <v>2527.647975764259</v>
       </c>
       <c r="AH2">
-        <v>0.6378469388807375</v>
+        <v>0.6718133910871489</v>
       </c>
       <c r="AI2">
-        <v>0.6138209569916507</v>
+        <v>0.5742693464396641</v>
       </c>
       <c r="AJ2">
-        <v>0.6105378912910441</v>
+        <v>0.6266562319208144</v>
       </c>
       <c r="AK2">
-        <v>0.5858764461435626</v>
+        <v>0.5251766668769962</v>
       </c>
       <c r="AL2">
-        <v>21.8</v>
+        <v>26.8</v>
       </c>
       <c r="AM2">
-        <v>21.8</v>
+        <v>26.8</v>
       </c>
       <c r="AN2">
-        <v>11.88526434195726</v>
+        <v>18.15753788102116</v>
       </c>
       <c r="AO2">
-        <v>10.38073394495413</v>
+        <v>6.440298507462686</v>
       </c>
       <c r="AP2">
-        <v>10.92589593000839</v>
+        <v>14.90270606546937</v>
       </c>
       <c r="AQ2">
-        <v>10.38073394495413</v>
+        <v>6.440298507462686</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>8.000000000000001e-05</v>
+        <v>-0.00264</v>
       </c>
       <c r="E3">
-        <v>0.0135</v>
+        <v>-0.0745</v>
       </c>
       <c r="F3">
-        <v>0.08699999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="G3">
-        <v>0.1440188714383264</v>
+        <v>0.1460353679406731</v>
       </c>
       <c r="H3">
-        <v>0.1440188714383264</v>
+        <v>0.1460353679406731</v>
       </c>
       <c r="I3">
-        <v>0.136316786326496</v>
+        <v>0.09966936956483066</v>
       </c>
       <c r="J3">
-        <v>0.09773059622943681</v>
+        <v>0.06366107437274614</v>
       </c>
       <c r="K3">
-        <v>154.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="L3">
-        <v>0.09572288782668073</v>
+        <v>0.05482030804335425</v>
       </c>
       <c r="M3">
-        <v>152.9</v>
+        <v>4.72</v>
       </c>
       <c r="N3">
-        <v>0.08225737034646007</v>
+        <v>0.003134338269473404</v>
       </c>
       <c r="O3">
-        <v>0.9915693904020751</v>
+        <v>0.04911550468262227</v>
       </c>
       <c r="P3">
-        <v>130.2</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.07004519044544867</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.8443579766536965</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>22.69999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="T3">
-        <v>0.1484630477436232</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>359.9</v>
+        <v>555</v>
       </c>
       <c r="V3">
-        <v>0.1936195394878416</v>
+        <v>0.3685503685503685</v>
       </c>
       <c r="W3">
-        <v>0.07354764857388152</v>
+        <v>0.04666181111920369</v>
       </c>
       <c r="X3">
-        <v>0.08251608711848375</v>
+        <v>0.09353095774912788</v>
       </c>
       <c r="Y3">
-        <v>-0.008968438544602234</v>
+        <v>-0.0468691466299242</v>
       </c>
       <c r="Z3">
-        <v>0.3280096202159381</v>
+        <v>0.3728162726189691</v>
       </c>
       <c r="AA3">
-        <v>0.03205657575269476</v>
+        <v>0.02373388445856619</v>
       </c>
       <c r="AB3">
-        <v>0.04676121290551122</v>
+        <v>0.04529620934707808</v>
       </c>
       <c r="AC3">
-        <v>-0.01470463715281646</v>
+        <v>-0.02156232488851189</v>
       </c>
       <c r="AD3">
-        <v>3169.8</v>
+        <v>3079.7</v>
       </c>
       <c r="AE3">
-        <v>104.0364445332381</v>
+        <v>2.947975764259178</v>
       </c>
       <c r="AF3">
-        <v>3273.836444533238</v>
+        <v>3082.647975764259</v>
       </c>
       <c r="AG3">
-        <v>2913.936444533238</v>
+        <v>2527.647975764259</v>
       </c>
       <c r="AH3">
-        <v>0.6378469388807375</v>
+        <v>0.6718133910871489</v>
       </c>
       <c r="AI3">
-        <v>0.6138209569916507</v>
+        <v>0.5742693464396641</v>
       </c>
       <c r="AJ3">
-        <v>0.6105378912910441</v>
+        <v>0.6266562319208144</v>
       </c>
       <c r="AK3">
-        <v>0.5858764461435626</v>
+        <v>0.5251766668769962</v>
       </c>
       <c r="AL3">
-        <v>21.8</v>
+        <v>26.8</v>
       </c>
       <c r="AM3">
-        <v>21.8</v>
+        <v>26.8</v>
       </c>
       <c r="AN3">
-        <v>11.88526434195726</v>
+        <v>18.15753788102116</v>
       </c>
       <c r="AO3">
-        <v>10.38073394495413</v>
+        <v>6.440298507462686</v>
       </c>
       <c r="AP3">
-        <v>10.92589593000839</v>
+        <v>14.90270606546937</v>
       </c>
       <c r="AQ3">
-        <v>10.38073394495413</v>
+        <v>6.440298507462686</v>
       </c>
     </row>
   </sheetData>
